--- a/output/fit_clients/fit_round_488.xlsx
+++ b/output/fit_clients/fit_round_488.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1795835873.262493</v>
+        <v>2279729787.075274</v>
       </c>
       <c r="F2" t="n">
-        <v>0.106633390479061</v>
+        <v>0.07764919581703726</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04224385625059596</v>
+        <v>0.02865989718288125</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>897917904.8812995</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2258013256.831916</v>
+        <v>1792241094.077405</v>
       </c>
       <c r="F3" t="n">
-        <v>0.155332440299398</v>
+        <v>0.1477957387050308</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04824625344689808</v>
+        <v>0.03724329792057057</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1129006708.451676</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4511588097.491568</v>
+        <v>5111756101.259121</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1408322262239625</v>
+        <v>0.1393109081332642</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03043981080537091</v>
+        <v>0.0253764531353471</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>176</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2255794099.190349</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3208658287.664769</v>
+        <v>4072371906.608858</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07170225668896138</v>
+        <v>0.08900604686195852</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04368106156536008</v>
+        <v>0.041813435849318</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>180</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1604329199.907267</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2702298022.104382</v>
+        <v>2141027742.919957</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1230474401580349</v>
+        <v>0.10686551936742</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03513525717146294</v>
+        <v>0.04694166861756925</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>93</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1351148964.664181</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2382072802.9606</v>
+        <v>2212609351.357499</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07380811118000664</v>
+        <v>0.08956130998559046</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0459762737578369</v>
+        <v>0.03055209208832941</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>153</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1191036425.862252</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3960907654.383334</v>
+        <v>2815796093.239003</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2136831268831952</v>
+        <v>0.1477523549786688</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02872584410742582</v>
+        <v>0.02481237210624913</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>155</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1980453982.960964</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2249280710.04841</v>
+        <v>1977890397.910909</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1480698864627998</v>
+        <v>0.1754787665920449</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02889704848718136</v>
+        <v>0.03367009652961178</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1124640347.073277</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5790385361.677755</v>
+        <v>4718588963.438096</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1449582746416601</v>
+        <v>0.1902352313119601</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05292836642433942</v>
+        <v>0.05071670367767944</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>205</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2895192841.359564</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4253317843.756347</v>
+        <v>3978161765.344032</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1418950952615463</v>
+        <v>0.1758475559201627</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04080408548667967</v>
+        <v>0.04023035739073888</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>201</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2126658952.219554</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3028480116.310427</v>
+        <v>2548457555.422428</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1619434700210415</v>
+        <v>0.1838770959120813</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04592444965648985</v>
+        <v>0.03556879485462038</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>166</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1514240078.813461</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3504853664.048045</v>
+        <v>3663899753.801507</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09172622940938571</v>
+        <v>0.09450706510102309</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01910418260694359</v>
+        <v>0.02403575457328302</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>163</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1752426912.123663</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3864843999.737177</v>
+        <v>3663377098.890528</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1798675680319376</v>
+        <v>0.1169348419507746</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03172899535127473</v>
+        <v>0.03301149047239247</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>155</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1932421971.7018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1606955135.79534</v>
+        <v>1378400188.119804</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09864238526177083</v>
+        <v>0.07546999116162076</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04779041883542497</v>
+        <v>0.03572386326577186</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>803477677.6652405</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2279777707.107141</v>
+        <v>2493928706.425473</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07285202242102849</v>
+        <v>0.08097591050227322</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04321591237553785</v>
+        <v>0.03449362270063915</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>100</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1139888904.079974</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4402030864.068264</v>
+        <v>4726225373.267386</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1640136077804346</v>
+        <v>0.1075434580801577</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04545249290605265</v>
+        <v>0.04747478422797999</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>142</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2201015446.794024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2573885214.603047</v>
+        <v>3131355568.921307</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1117742066552778</v>
+        <v>0.1215769627614827</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02488592123327172</v>
+        <v>0.03011073208978848</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>160</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1286942668.439891</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>893832807.1634439</v>
+        <v>1003208722.258354</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1160994712229315</v>
+        <v>0.1680379487744037</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02405936039874674</v>
+        <v>0.02751753992689179</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>446916406.9771101</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2503345246.824278</v>
+        <v>2182756854.834188</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1286263124709903</v>
+        <v>0.1354266418708152</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02741728476145453</v>
+        <v>0.02639880085035076</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>68</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1251672596.172713</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1773338560.711705</v>
+        <v>2512276311.52178</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07342182338477392</v>
+        <v>0.09026067848448775</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03629283847695949</v>
+        <v>0.02865340581259607</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>37</v>
-      </c>
-      <c r="J21" t="n">
-        <v>886669338.0209887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3033047326.171456</v>
+        <v>2892544069.057834</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1156785895434455</v>
+        <v>0.1129361352995562</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05059594009090056</v>
+        <v>0.05122646660687945</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>136</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1516523722.660257</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1355118193.948846</v>
+        <v>1519181352.760618</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1246215547048409</v>
+        <v>0.1167712158750992</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04648580754210665</v>
+        <v>0.04696539221361638</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>677559107.3522069</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3225653166.818086</v>
+        <v>3679212638.747333</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1297263464341812</v>
+        <v>0.1105505152987335</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03290993217842376</v>
+        <v>0.02326522813077836</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>144</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1612826603.485821</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1163816248.777281</v>
+        <v>922989037.3325757</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07532384145659028</v>
+        <v>0.1005250595570779</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02956952503944944</v>
+        <v>0.02487158175202502</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>581908150.7252653</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1426595997.877034</v>
+        <v>910034012.206984</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09280781449272729</v>
+        <v>0.1094977062296651</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03341718507991188</v>
+        <v>0.02782898529205901</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>713298075.5011728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3757357223.353344</v>
+        <v>4223249906.208067</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1269137844798302</v>
+        <v>0.113147423376228</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01935498269613184</v>
+        <v>0.0211517382494459</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>125</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1878678633.891338</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2419622671.551347</v>
+        <v>3371484813.703055</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1071018400351436</v>
+        <v>0.1104348983054783</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03685001165420324</v>
+        <v>0.03086596207096331</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>157</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1209811296.620171</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5179178392.272517</v>
+        <v>4617802786.311613</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1197111009842654</v>
+        <v>0.12648817454145</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02972884009002481</v>
+        <v>0.03484242076701636</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>215</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2589589131.273064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2050067573.278198</v>
+        <v>2292498789.607805</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1271902152690899</v>
+        <v>0.1146434565053847</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02974439484203904</v>
+        <v>0.03002644862911858</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1025033829.807974</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>986618294.4032216</v>
+        <v>1043582251.381145</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07117939294631115</v>
+        <v>0.09268793237256895</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0523905128389807</v>
+        <v>0.03757044168961788</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>493309148.9115943</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1722980865.007246</v>
+        <v>1717958997.893357</v>
       </c>
       <c r="F32" t="n">
-        <v>0.102101854165331</v>
+        <v>0.1108605974085288</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03545896016453845</v>
+        <v>0.02734052691917926</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>861490547.0646597</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2640914757.908789</v>
+        <v>2781978079.374176</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1585910890499815</v>
+        <v>0.1425542065209936</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04659452337447682</v>
+        <v>0.05942551295439814</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>151</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1320457405.170265</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1263169760.358789</v>
+        <v>1069217780.395003</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08594452220010908</v>
+        <v>0.1137109733402274</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02006846172069278</v>
+        <v>0.01747543600540213</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>631584874.879719</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1038737248.421338</v>
+        <v>1239184413.332443</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07667486444548882</v>
+        <v>0.1125424639887979</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03241795644768992</v>
+        <v>0.03297663547568689</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>519368634.3184111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2962335598.338027</v>
+        <v>3183812416.399673</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1754921063796663</v>
+        <v>0.1275416562226685</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02645707859871128</v>
+        <v>0.02361556322984868</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>123</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1481167784.124138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2912986177.577447</v>
+        <v>2466576553.345575</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08313381390287289</v>
+        <v>0.07765209201150497</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02567600442522162</v>
+        <v>0.03731460451076178</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>133</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1456493241.671342</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1727565834.170302</v>
+        <v>2062567808.327765</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08984488905922898</v>
+        <v>0.08814808764985546</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03550361979639441</v>
+        <v>0.02792559741384822</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>863782934.2256496</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1952289168.04173</v>
+        <v>1473997563.42985</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1823662501807625</v>
+        <v>0.1281178655162563</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02407867716531261</v>
+        <v>0.03029589751069251</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>976144585.8297013</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1426433276.368765</v>
+        <v>1584556920.621681</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1306000713302352</v>
+        <v>0.125879027284508</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03646756250184072</v>
+        <v>0.05358506884999595</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>713216622.817077</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2894326386.284805</v>
+        <v>1904992852.426675</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1623753496905202</v>
+        <v>0.113067213031643</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03914968555272782</v>
+        <v>0.03167487267920784</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>118</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1447163179.818208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3234442446.1211</v>
+        <v>4290062510.135133</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09091123877634384</v>
+        <v>0.1208198438270014</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03836046552009705</v>
+        <v>0.04523570628854509</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>160</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1617221199.684019</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2861584935.264613</v>
+        <v>2512230870.694026</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1467012418756274</v>
+        <v>0.1551918986353212</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01705002909852633</v>
+        <v>0.02338328925626181</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>168</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1430792479.955034</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2285748405.925842</v>
+        <v>1899791586.825363</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07272936260129217</v>
+        <v>0.09985776139153199</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02501429387102025</v>
+        <v>0.02582857005601661</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1142874366.344047</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2543152632.159728</v>
+        <v>2016113767.9472</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1523299633498351</v>
+        <v>0.1737339383536412</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03666606912366402</v>
+        <v>0.053757384747352</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1271576361.715541</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3623137304.793127</v>
+        <v>4419466467.718257</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1723149467277438</v>
+        <v>0.1259865429448396</v>
       </c>
       <c r="G46" t="n">
-        <v>0.054252855321239</v>
+        <v>0.04263400196377867</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>173</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1811568600.360015</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4480227015.769607</v>
+        <v>3918843795.40142</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1563078650250337</v>
+        <v>0.1575795717466879</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05107520140395237</v>
+        <v>0.05172829451397445</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>131</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2240113534.259669</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3522250855.400396</v>
+        <v>3770564673.794982</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08113194357185066</v>
+        <v>0.09652561151140866</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03626859548049966</v>
+        <v>0.03603029000268189</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>159</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1761125489.860771</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1713217044.767247</v>
+        <v>1762693718.121588</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1904155653421077</v>
+        <v>0.1730062475446399</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0336792511554534</v>
+        <v>0.03550033200168854</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>856608521.2714916</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3716864390.555259</v>
+        <v>2901735535.872053</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1113430048889005</v>
+        <v>0.1753096207046131</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04101470218648143</v>
+        <v>0.03564846447715681</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>166</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1858432204.133776</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1140367347.748483</v>
+        <v>1216430989.973044</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1267107110595062</v>
+        <v>0.1798290258757228</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05379074322729788</v>
+        <v>0.03999577453217629</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>570183735.1208582</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4039630468.9788</v>
+        <v>3794210981.574967</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1243551989904321</v>
+        <v>0.1365860607911336</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0380810939817724</v>
+        <v>0.06171676389881432</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>201</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2019815288.653723</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3106803825.758261</v>
+        <v>2540175749.251783</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1646857391789913</v>
+        <v>0.127650105172407</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03391066078109042</v>
+        <v>0.02484918192590296</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>141</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1553401937.991901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4708546022.696182</v>
+        <v>4318833497.127085</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1569764307558521</v>
+        <v>0.141464006093046</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03420728877315009</v>
+        <v>0.04421359891175895</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>159</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2354273131.097138</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4141476836.066311</v>
+        <v>3096128886.557659</v>
       </c>
       <c r="F55" t="n">
-        <v>0.162073124691486</v>
+        <v>0.138870265983308</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02893758122845818</v>
+        <v>0.02093484171514366</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2070738399.209897</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1741831885.997746</v>
+        <v>1686432220.270148</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1109176543860027</v>
+        <v>0.1449314970225538</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05617729649360943</v>
+        <v>0.05257295278982404</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>870915949.4203008</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3756377868.423903</v>
+        <v>4164442166.312916</v>
       </c>
       <c r="F57" t="n">
-        <v>0.11758391594485</v>
+        <v>0.1330761387818202</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01674516555518567</v>
+        <v>0.01677055116393878</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>155</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1878189002.145502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1256284470.797573</v>
+        <v>1510240030.496068</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1427572297332538</v>
+        <v>0.1272593156523236</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03248362240873422</v>
+        <v>0.03473849045775069</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>628142288.7948676</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4086577309.677575</v>
+        <v>4671079918.221536</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1261382560055367</v>
+        <v>0.1096599020030589</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03595544775393391</v>
+        <v>0.04721048778075952</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>138</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2043288626.616486</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2610262878.417195</v>
+        <v>3313382614.270655</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1754256715649092</v>
+        <v>0.1674932552732918</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02307945423442522</v>
+        <v>0.02772311903762032</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>156</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1305131468.702486</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3377023367.717394</v>
+        <v>2384892058.00536</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1165593845344483</v>
+        <v>0.1286085580538149</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02239021012139565</v>
+        <v>0.03067828660321515</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>168</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1688511628.793959</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1525108111.86938</v>
+        <v>1899478782.716624</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1614308427200391</v>
+        <v>0.1450656206486928</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03228224823301344</v>
+        <v>0.04976704912296531</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>762554042.7815056</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4345609303.823278</v>
+        <v>5585502748.742509</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1010638912902566</v>
+        <v>0.1013814848598437</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04731696875459197</v>
+        <v>0.03950337325269869</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>139</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2172804698.898186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5407157562.749231</v>
+        <v>4004955648.67276</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1582534407594741</v>
+        <v>0.1629998524726168</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03554596492821011</v>
+        <v>0.02745736709645116</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>152</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2703578916.239568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5858056978.360111</v>
+        <v>4818587795.963368</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1384805201309899</v>
+        <v>0.1247567066108285</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01974495006590829</v>
+        <v>0.03009895316684837</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>175</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2929028396.912846</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5305156042.134701</v>
+        <v>3859750795.185949</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1175700374074865</v>
+        <v>0.1349493579212611</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03272882323485291</v>
+        <v>0.03312674070283344</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>142</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2652578064.567352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2820777904.801468</v>
+        <v>2139853059.057457</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08015151865925514</v>
+        <v>0.09783093033140926</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04795700920876378</v>
+        <v>0.03515048364024415</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>157</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1410388985.864458</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4896529378.337157</v>
+        <v>5577934601.798923</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1422628456812538</v>
+        <v>0.1569343829761453</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04554047592945974</v>
+        <v>0.03698709052500653</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>156</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2448264739.299841</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2066037946.580438</v>
+        <v>2353004105.895397</v>
       </c>
       <c r="F69" t="n">
-        <v>0.120837264937078</v>
+        <v>0.1464261627910283</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05070043300428816</v>
+        <v>0.05390616331688856</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1033018986.836001</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3359565266.117505</v>
+        <v>2885737347.407425</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07783042681464679</v>
+        <v>0.06760865836237824</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04134302981004055</v>
+        <v>0.04955974758005093</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>139</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1679782633.449271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3445383472.80252</v>
+        <v>5181979245.612542</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1567564694928147</v>
+        <v>0.1510868036518865</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02722100164560542</v>
+        <v>0.03132010294098045</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>177</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1722691726.051348</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1628801978.274121</v>
+        <v>1814117841.301322</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07673766071244167</v>
+        <v>0.08150720916491322</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0368921954287208</v>
+        <v>0.046895683008783</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>814400995.3432192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2637525563.176163</v>
+        <v>3108306905.031768</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1105576150756928</v>
+        <v>0.09699855945234595</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05124298472763148</v>
+        <v>0.0496576936063382</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>184</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1318762810.785064</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3929650356.315691</v>
+        <v>3186257572.844105</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1329038806866956</v>
+        <v>0.1703938760308054</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02280002836889612</v>
+        <v>0.0214081131241985</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>166</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1964825163.228506</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2407738321.909955</v>
+        <v>1797104358.479142</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1658121514127751</v>
+        <v>0.1593645311638857</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03575883613392967</v>
+        <v>0.02355243596122817</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1203869086.942394</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5087763917.788601</v>
+        <v>3545095700.850564</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08522700061136261</v>
+        <v>0.1080298117761402</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02925225980564731</v>
+        <v>0.02893513807388945</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2543881989.26591</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1566837189.327616</v>
+        <v>2017826203.403453</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1408013717214018</v>
+        <v>0.1254991238652507</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02586274232237705</v>
+        <v>0.02067711877189007</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>783418592.2726494</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3615778490.767407</v>
+        <v>4399308223.72055</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1299731472776606</v>
+        <v>0.1034091152858326</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05102058168266446</v>
+        <v>0.03811112771598141</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>169</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1807889238.630974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1514704001.427057</v>
+        <v>1584141867.665625</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1219291705093278</v>
+        <v>0.1400444381160738</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03136855153480633</v>
+        <v>0.03423519040224417</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>757352037.5343375</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3478839880.451065</v>
+        <v>4294387195.647718</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08242995172015939</v>
+        <v>0.08241636656153399</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02966850624676544</v>
+        <v>0.02907193487542334</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1739419913.77706</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4855433912.375231</v>
+        <v>3343205557.699567</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1313602448195917</v>
+        <v>0.09515657718646998</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0281759965371295</v>
+        <v>0.02846255940608149</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2427716951.179532</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5413111751.589154</v>
+        <v>5559082062.499623</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1861388653389892</v>
+        <v>0.2070953042675433</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02322206518608251</v>
+        <v>0.02758948038403892</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>172</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2706555836.727535</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1549188990.016893</v>
+        <v>2285693928.603736</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09868756197834339</v>
+        <v>0.1419134651558775</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03318241931225051</v>
+        <v>0.03303827347537495</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>774594424.2507347</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1785797855.561696</v>
+        <v>1962055352.772022</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08495526877967267</v>
+        <v>0.09144585568071643</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04483202324918588</v>
+        <v>0.0398225539274657</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>892898964.184919</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3166184816.583065</v>
+        <v>3358180274.719178</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1511140374934051</v>
+        <v>0.1580034109222422</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04479841644623305</v>
+        <v>0.03807410822840845</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>182</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1583092486.791488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2400442057.926249</v>
+        <v>2354116502.521636</v>
       </c>
       <c r="F86" t="n">
-        <v>0.115160567210926</v>
+        <v>0.1193291990544429</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01744487819707182</v>
+        <v>0.02650209257992948</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1200221112.303711</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1111000284.132282</v>
+        <v>1266354306.48815</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1733899771747512</v>
+        <v>0.1701126161957598</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03063551453971805</v>
+        <v>0.04449568240194859</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>555500174.8811246</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2911080178.444902</v>
+        <v>2306462954.558771</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1722064786665385</v>
+        <v>0.1543776589360248</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03589192166086631</v>
+        <v>0.03103987326385551</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>194</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1455540110.895173</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2961340238.476934</v>
+        <v>2254113768.731752</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1028302554092748</v>
+        <v>0.1524060410755263</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04050689656179889</v>
+        <v>0.03017895279300134</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>165</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1480670160.198088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1603544442.854656</v>
+        <v>2017595156.856916</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08549836188145699</v>
+        <v>0.09086719117307457</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04165660623871653</v>
+        <v>0.05313073240548599</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>801772219.1302788</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1683919795.076979</v>
+        <v>1381219163.680717</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1468558302070767</v>
+        <v>0.1514568400593251</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04418411071184246</v>
+        <v>0.06112901379534146</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>841959911.9631546</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1845908618.539329</v>
+        <v>2057794301.019196</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07258168596020627</v>
+        <v>0.08888157230799004</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04656739505443209</v>
+        <v>0.04457266844565591</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>133</v>
-      </c>
-      <c r="J92" t="n">
-        <v>922954243.8382727</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3916842959.596564</v>
+        <v>3922950980.438518</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1135610572623639</v>
+        <v>0.09014667027858192</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04626454077640757</v>
+        <v>0.03938013917905439</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>150</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1958421485.796708</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1576641670.439397</v>
+        <v>1777455577.147221</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1493226678900552</v>
+        <v>0.1097441644001608</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03416379606081093</v>
+        <v>0.03849698494441986</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>788320778.5490718</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2097010867.419573</v>
+        <v>2543556467.369813</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1136496238708348</v>
+        <v>0.1201945139182735</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03659173529515447</v>
+        <v>0.05222898379188901</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>118</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1048505499.136715</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2041596913.813648</v>
+        <v>1962509705.218979</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1072755745804802</v>
+        <v>0.1379638521233994</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0383965874235851</v>
+        <v>0.03545099430038991</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1020798439.469901</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4398353536.071596</v>
+        <v>3240649480.22535</v>
       </c>
       <c r="F97" t="n">
-        <v>0.109419965237067</v>
+        <v>0.1743692382148244</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02098824258267082</v>
+        <v>0.02118458522329512</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>158</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2199176856.469655</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2869053887.060028</v>
+        <v>3910717733.056983</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08171161853623322</v>
+        <v>0.08152033447707832</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02920211078657537</v>
+        <v>0.0267505092136038</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>133</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1434526919.359849</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3415310886.059289</v>
+        <v>3085691744.630461</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09925795810058699</v>
+        <v>0.1404475760785921</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02252471609843822</v>
+        <v>0.03301808105786888</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>155</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1707655459.141643</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2936051580.714499</v>
+        <v>3328026035.86019</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1443674770898682</v>
+        <v>0.1327136551591901</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02653219223061207</v>
+        <v>0.02525762383359188</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>150</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1468025776.124674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2493150617.278425</v>
+        <v>2709297996.214594</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2067347441320323</v>
+        <v>0.2093625988703021</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05620758826545168</v>
+        <v>0.05691908945448349</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>198</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1246575330.781184</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_488.xlsx
+++ b/output/fit_clients/fit_round_488.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2279729787.075274</v>
+        <v>2187193354.447986</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07764919581703726</v>
+        <v>0.09942141903341324</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02865989718288125</v>
+        <v>0.04493591875628926</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1792241094.077405</v>
+        <v>1595992184.789728</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1477957387050308</v>
+        <v>0.1486909365600275</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03724329792057057</v>
+        <v>0.04386614674566821</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5111756101.259121</v>
+        <v>5126026597.70673</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1393109081332642</v>
+        <v>0.1446482113239606</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0253764531353471</v>
+        <v>0.02783523829840909</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4072371906.608858</v>
+        <v>2965070790.014704</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08900604686195852</v>
+        <v>0.09764079592466156</v>
       </c>
       <c r="G5" t="n">
-        <v>0.041813435849318</v>
+        <v>0.04749636678461015</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2141027742.919957</v>
+        <v>1802904580.537668</v>
       </c>
       <c r="F6" t="n">
-        <v>0.10686551936742</v>
+        <v>0.1288226023231559</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04694166861756925</v>
+        <v>0.04590243272838973</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2212609351.357499</v>
+        <v>2160829162.250646</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08956130998559046</v>
+        <v>0.0957970078531284</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03055209208832941</v>
+        <v>0.03535575591658411</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2815796093.239003</v>
+        <v>3899437156.585568</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1477523549786688</v>
+        <v>0.2053192214098193</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02481237210624913</v>
+        <v>0.02275718934551264</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1977890397.910909</v>
+        <v>1798895064.047605</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1754787665920449</v>
+        <v>0.1235062270377945</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03367009652961178</v>
+        <v>0.03023049206425365</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4718588963.438096</v>
+        <v>5015751208.876348</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1902352313119601</v>
+        <v>0.1510173013687143</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05071670367767944</v>
+        <v>0.04548425689948939</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3978161765.344032</v>
+        <v>2749980459.096259</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1758475559201627</v>
+        <v>0.1248409019196782</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04023035739073888</v>
+        <v>0.04688829721602609</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2548457555.422428</v>
+        <v>3305994009.962198</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1838770959120813</v>
+        <v>0.1591643883664876</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03556879485462038</v>
+        <v>0.04505474540701586</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3663899753.801507</v>
+        <v>5040894442.366872</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09450706510102309</v>
+        <v>0.0953086243929854</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02403575457328302</v>
+        <v>0.03005044070447669</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3663377098.890528</v>
+        <v>3143126707.078603</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1169348419507746</v>
+        <v>0.1559697980955755</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03301149047239247</v>
+        <v>0.03613968656598786</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1378400188.119804</v>
+        <v>1124845335.541392</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07546999116162076</v>
+        <v>0.09002970143921481</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03572386326577186</v>
+        <v>0.04683194651581253</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2493928706.425473</v>
+        <v>2511447230.031416</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08097591050227322</v>
+        <v>0.09171327997952025</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03449362270063915</v>
+        <v>0.04492467513538971</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4726225373.267386</v>
+        <v>3758420910.526166</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1075434580801577</v>
+        <v>0.1268629254607665</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04747478422797999</v>
+        <v>0.0440902110137122</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3131355568.921307</v>
+        <v>3553675120.940959</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1215769627614827</v>
+        <v>0.1610300824679104</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03011073208978848</v>
+        <v>0.03262211801195092</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1003208722.258354</v>
+        <v>1033094466.114822</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1680379487744037</v>
+        <v>0.1496333842783151</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02751753992689179</v>
+        <v>0.01923711023022626</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2182756854.834188</v>
+        <v>2358181764.168649</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1354266418708152</v>
+        <v>0.1158861762729918</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02639880085035076</v>
+        <v>0.02208412418427224</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2512276311.52178</v>
+        <v>2208273220.843791</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09026067848448775</v>
+        <v>0.07253340027882928</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02865340581259607</v>
+        <v>0.04612564741275728</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2892544069.057834</v>
+        <v>3059955596.563845</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1129361352995562</v>
+        <v>0.1389013465618338</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05122646660687945</v>
+        <v>0.04446299858512473</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1519181352.760618</v>
+        <v>1129672587.902899</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1167712158750992</v>
+        <v>0.1651786998585179</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04696539221361638</v>
+        <v>0.04875899057383653</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3679212638.747333</v>
+        <v>2996046133.923182</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1105505152987335</v>
+        <v>0.0904481126083876</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02326522813077836</v>
+        <v>0.02765290450993145</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>922989037.3325757</v>
+        <v>953044905.1673222</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1005250595570779</v>
+        <v>0.09682426650389477</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02487158175202502</v>
+        <v>0.02684389203551343</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>910034012.206984</v>
+        <v>1077320089.576686</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1094977062296651</v>
+        <v>0.1214128504647682</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02782898529205901</v>
+        <v>0.02592767443240598</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4223249906.208067</v>
+        <v>3253784052.557501</v>
       </c>
       <c r="F27" t="n">
-        <v>0.113147423376228</v>
+        <v>0.1023699383611537</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0211517382494459</v>
+        <v>0.01834597916974984</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3371484813.703055</v>
+        <v>3330499217.348101</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1104348983054783</v>
+        <v>0.1142968175837393</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03086596207096331</v>
+        <v>0.03031835213574227</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4617802786.311613</v>
+        <v>4894351072.100615</v>
       </c>
       <c r="F29" t="n">
-        <v>0.12648817454145</v>
+        <v>0.1440779070423838</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03484242076701636</v>
+        <v>0.0320236388548498</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2292498789.607805</v>
+        <v>1513206506.224613</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1146434565053847</v>
+        <v>0.1060820354362752</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03002644862911858</v>
+        <v>0.02666597350942499</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1043582251.381145</v>
+        <v>1311266426.734577</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09268793237256895</v>
+        <v>0.06761268194698415</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03757044168961788</v>
+        <v>0.03258400286242971</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1717958997.893357</v>
+        <v>1286601740.756518</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1108605974085288</v>
+        <v>0.09740342125921288</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02734052691917926</v>
+        <v>0.03402195547438971</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2781978079.374176</v>
+        <v>2333013264.87396</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1425542065209936</v>
+        <v>0.1685714519426645</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05942551295439814</v>
+        <v>0.05566186695749557</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1069217780.395003</v>
+        <v>1011575790.771263</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1137109733402274</v>
+        <v>0.08949531736635387</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01747543600540213</v>
+        <v>0.02685231257313257</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1239184413.332443</v>
+        <v>1001712838.539938</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1125424639887979</v>
+        <v>0.1094262692848454</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03297663547568689</v>
+        <v>0.03054752386924017</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3183812416.399673</v>
+        <v>2138253001.792856</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1275416562226685</v>
+        <v>0.1451783529157367</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02361556322984868</v>
+        <v>0.02785678829808442</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2466576553.345575</v>
+        <v>1905669382.349524</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07765209201150497</v>
+        <v>0.110913869285499</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03731460451076178</v>
+        <v>0.02606490440816612</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2062567808.327765</v>
+        <v>1970217945.804104</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08814808764985546</v>
+        <v>0.1139972249732292</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02792559741384822</v>
+        <v>0.03347804246675675</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1473997563.42985</v>
+        <v>1409535203.430521</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1281178655162563</v>
+        <v>0.1242101228146871</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03029589751069251</v>
+        <v>0.02031778672836513</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1584556920.621681</v>
+        <v>1161453370.951851</v>
       </c>
       <c r="F40" t="n">
-        <v>0.125879027284508</v>
+        <v>0.1366967253687742</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05358506884999595</v>
+        <v>0.04548677137727111</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1904992852.426675</v>
+        <v>2793022739.339983</v>
       </c>
       <c r="F41" t="n">
-        <v>0.113067213031643</v>
+        <v>0.1212990996356779</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03167487267920784</v>
+        <v>0.0433825754705457</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4290062510.135133</v>
+        <v>2984242897.859791</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1208198438270014</v>
+        <v>0.07906211950235456</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04523570628854509</v>
+        <v>0.02885307336421366</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2512230870.694026</v>
+        <v>3036637160.815176</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1551918986353212</v>
+        <v>0.1301711676564351</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02338328925626181</v>
+        <v>0.02031630147620671</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1899791586.825363</v>
+        <v>2032805654.212313</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09985776139153199</v>
+        <v>0.06326942574532515</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02582857005601661</v>
+        <v>0.03256971765274413</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2016113767.9472</v>
+        <v>2104495827.072152</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1737339383536412</v>
+        <v>0.1722638517405835</v>
       </c>
       <c r="G45" t="n">
-        <v>0.053757384747352</v>
+        <v>0.04805141804416565</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4419466467.718257</v>
+        <v>5415619023.530092</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1259865429448396</v>
+        <v>0.1722896581544969</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04263400196377867</v>
+        <v>0.05404475171902385</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3918843795.40142</v>
+        <v>4396483510.100023</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1575795717466879</v>
+        <v>0.1247257292020005</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05172829451397445</v>
+        <v>0.05135521689141858</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3770564673.794982</v>
+        <v>3492640403.636996</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09652561151140866</v>
+        <v>0.09417200565867496</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03603029000268189</v>
+        <v>0.02632192187333142</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1762693718.121588</v>
+        <v>1212558629.83908</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1730062475446399</v>
+        <v>0.1693793961945536</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03550033200168854</v>
+        <v>0.04211212926314574</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2901735535.872053</v>
+        <v>4228865676.053864</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1753096207046131</v>
+        <v>0.1148857992098449</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03564846447715681</v>
+        <v>0.03629166289633822</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1216430989.973044</v>
+        <v>1408570412.400218</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1798290258757228</v>
+        <v>0.1581716510723128</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03999577453217629</v>
+        <v>0.03446543328343936</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3794210981.574967</v>
+        <v>4925777375.532604</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1365860607911336</v>
+        <v>0.08734827441239719</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06171676389881432</v>
+        <v>0.06157784044237991</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2540175749.251783</v>
+        <v>3218261511.316722</v>
       </c>
       <c r="F53" t="n">
-        <v>0.127650105172407</v>
+        <v>0.1268149589103864</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02484918192590296</v>
+        <v>0.03448951574554888</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4318833497.127085</v>
+        <v>3646892035.569912</v>
       </c>
       <c r="F54" t="n">
-        <v>0.141464006093046</v>
+        <v>0.139805932728168</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04421359891175895</v>
+        <v>0.04524498290879733</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3096128886.557659</v>
+        <v>4702470595.105186</v>
       </c>
       <c r="F55" t="n">
-        <v>0.138870265983308</v>
+        <v>0.1602433647082986</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02093484171514366</v>
+        <v>0.02693200173210713</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1686432220.270148</v>
+        <v>1584416522.715787</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1449314970225538</v>
+        <v>0.1032514781067283</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05257295278982404</v>
+        <v>0.04885940581246568</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4164442166.312916</v>
+        <v>3298064119.599576</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1330761387818202</v>
+        <v>0.1159719304694979</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01677055116393878</v>
+        <v>0.02727449125030614</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1510240030.496068</v>
+        <v>1864731992.946913</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1272593156523236</v>
+        <v>0.1652167953737359</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03473849045775069</v>
+        <v>0.03664627651784794</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4671079918.221536</v>
+        <v>5419210211.534366</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1096599020030589</v>
+        <v>0.08618092621149465</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04721048778075952</v>
+        <v>0.04639329641612286</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3313382614.270655</v>
+        <v>3399104677.718995</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1674932552732918</v>
+        <v>0.1538811262849895</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02772311903762032</v>
+        <v>0.02636303655933499</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2384892058.00536</v>
+        <v>2170390409.546371</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1286085580538149</v>
+        <v>0.1717667090045975</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03067828660321515</v>
+        <v>0.02172058176278089</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1899478782.716624</v>
+        <v>1579551192.230972</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1450656206486928</v>
+        <v>0.176218998950479</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04976704912296531</v>
+        <v>0.04584607496554701</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5585502748.742509</v>
+        <v>5028887955.734922</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1013814848598437</v>
+        <v>0.09986561242283201</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03950337325269869</v>
+        <v>0.03805272261660232</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4004955648.67276</v>
+        <v>5222402912.341308</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1629998524726168</v>
+        <v>0.1306120964066789</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02745736709645116</v>
+        <v>0.02407309527597543</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4818587795.963368</v>
+        <v>4486325849.105666</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1247567066108285</v>
+        <v>0.121530999263487</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03009895316684837</v>
+        <v>0.02885150335325614</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3859750795.185949</v>
+        <v>3841820092.196052</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1349493579212611</v>
+        <v>0.1440367544047444</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03312674070283344</v>
+        <v>0.0464376829115717</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2139853059.057457</v>
+        <v>2840822495.922352</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09783093033140926</v>
+        <v>0.06572115883615169</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03515048364024415</v>
+        <v>0.04565942949527638</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,13 +2334,13 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5577934601.798923</v>
+        <v>4557961499.409648</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1569343829761453</v>
+        <v>0.1327954823587754</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03698709052500653</v>
+        <v>0.04165931225029256</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2353004105.895397</v>
+        <v>2295989124.497653</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1464261627910283</v>
+        <v>0.1669428409569283</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05390616331688856</v>
+        <v>0.04250627615351069</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2885737347.407425</v>
+        <v>2871299649.484879</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06760865836237824</v>
+        <v>0.09869626337902673</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04955974758005093</v>
+        <v>0.0395188345909897</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5181979245.612542</v>
+        <v>4769641082.765924</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1510868036518865</v>
+        <v>0.1521001788522384</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03132010294098045</v>
+        <v>0.02609176953883234</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1814117841.301322</v>
+        <v>1541076215.855342</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08150720916491322</v>
+        <v>0.105126001349463</v>
       </c>
       <c r="G72" t="n">
-        <v>0.046895683008783</v>
+        <v>0.03561625564838859</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3108306905.031768</v>
+        <v>3133942505.483684</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09699855945234595</v>
+        <v>0.07656994081682864</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0496576936063382</v>
+        <v>0.04981701029588577</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3186257572.844105</v>
+        <v>2607554608.877769</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1703938760308054</v>
+        <v>0.11866758299361</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0214081131241985</v>
+        <v>0.02189192335483164</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1797104358.479142</v>
+        <v>2055778120.495881</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1593645311638857</v>
+        <v>0.1279101152066216</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02355243596122817</v>
+        <v>0.03601405013588994</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3545095700.850564</v>
+        <v>3848501911.190156</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1080298117761402</v>
+        <v>0.08042212684261313</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02893513807388945</v>
+        <v>0.03130276971884663</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2017826203.403453</v>
+        <v>1526365554.063728</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1254991238652507</v>
+        <v>0.1661840578501357</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02067711877189007</v>
+        <v>0.03050574516341259</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4399308223.72055</v>
+        <v>3612775306.888462</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1034091152858326</v>
+        <v>0.1268153081543331</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03811112771598141</v>
+        <v>0.05479881609426344</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1584141867.665625</v>
+        <v>1333792760.386606</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1400444381160738</v>
+        <v>0.1602782748400467</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03423519040224417</v>
+        <v>0.02549864733953032</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4294387195.647718</v>
+        <v>5374162690.564753</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08241636656153399</v>
+        <v>0.1041032723199019</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02907193487542334</v>
+        <v>0.03284688023966744</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3343205557.699567</v>
+        <v>4531434549.631981</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09515657718646998</v>
+        <v>0.09515262262056606</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02846255940608149</v>
+        <v>0.02991309595155328</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5559082062.499623</v>
+        <v>3908561902.814964</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2070953042675433</v>
+        <v>0.1517717820811272</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02758948038403892</v>
+        <v>0.02413634503121971</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2285693928.603736</v>
+        <v>2334316903.600954</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1419134651558775</v>
+        <v>0.1123611405589103</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03303827347537495</v>
+        <v>0.04268588935749808</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1962055352.772022</v>
+        <v>2214956484.99596</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09144585568071643</v>
+        <v>0.1176583386394938</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0398225539274657</v>
+        <v>0.04109471962685134</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3358180274.719178</v>
+        <v>3671226314.31691</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1580034109222422</v>
+        <v>0.13256618801841</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03807410822840845</v>
+        <v>0.04062236046056571</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2354116502.521636</v>
+        <v>2421707910.139618</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1193291990544429</v>
+        <v>0.1128560540014311</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02650209257992948</v>
+        <v>0.02410244492397294</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1266354306.48815</v>
+        <v>1283165620.019499</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1701126161957598</v>
+        <v>0.1799526353612523</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04449568240194859</v>
+        <v>0.04042050187670456</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2306462954.558771</v>
+        <v>3675532255.681599</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1543776589360248</v>
+        <v>0.1764806871596895</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03103987326385551</v>
+        <v>0.03359839747027412</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2254113768.731752</v>
+        <v>2310578320.617401</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1524060410755263</v>
+        <v>0.1385546249768155</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03017895279300134</v>
+        <v>0.02741189048240875</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2017595156.856916</v>
+        <v>1336125480.936701</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09086719117307457</v>
+        <v>0.1010256852822015</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05313073240548599</v>
+        <v>0.05535807040283185</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1381219163.680717</v>
+        <v>2057012554.554866</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1514568400593251</v>
+        <v>0.1696015966082086</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06112901379534146</v>
+        <v>0.05000569737449248</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2057794301.019196</v>
+        <v>2643994895.285325</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08888157230799004</v>
+        <v>0.07530749818280873</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04457266844565591</v>
+        <v>0.03686640557451962</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3922950980.438518</v>
+        <v>4583905946.611521</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09014667027858192</v>
+        <v>0.1172389717779562</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03938013917905439</v>
+        <v>0.03577408740765006</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1777455577.147221</v>
+        <v>1718309437.544896</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1097441644001608</v>
+        <v>0.1076925226036857</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03849698494441986</v>
+        <v>0.03506982131552923</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2543556467.369813</v>
+        <v>3195199823.062228</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1201945139182735</v>
+        <v>0.09826266061672252</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05222898379188901</v>
+        <v>0.03513872940301154</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1962509705.218979</v>
+        <v>2126777883.078377</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1379638521233994</v>
+        <v>0.1157506865546871</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03545099430038991</v>
+        <v>0.03358286355365759</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3240649480.22535</v>
+        <v>5052304640.493951</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1743692382148244</v>
+        <v>0.1296599912400617</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02118458522329512</v>
+        <v>0.02268617851586036</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3910717733.056983</v>
+        <v>3724910586.057725</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08152033447707832</v>
+        <v>0.1050969725978545</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0267505092136038</v>
+        <v>0.03006067116030424</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3085691744.630461</v>
+        <v>2072701250.807633</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1404475760785921</v>
+        <v>0.1012974243206483</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03301808105786888</v>
+        <v>0.03285027501538706</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3328026035.86019</v>
+        <v>3029922370.992644</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1327136551591901</v>
+        <v>0.1368512918349998</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02525762383359188</v>
+        <v>0.02265290417679668</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2709297996.214594</v>
+        <v>3169493223.122377</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2093625988703021</v>
+        <v>0.1666175162361496</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05691908945448349</v>
+        <v>0.04326951390982021</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_488.xlsx
+++ b/output/fit_clients/fit_round_488.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2187193354.447986</v>
+        <v>1633700555.043041</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09942141903341324</v>
+        <v>0.09185644823580807</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04493591875628926</v>
+        <v>0.03648986071999753</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1595992184.789728</v>
+        <v>2635113871.798044</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1486909365600275</v>
+        <v>0.1347605914595106</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04386614674566821</v>
+        <v>0.04539907484328579</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5126026597.70673</v>
+        <v>3182440355.809101</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1446482113239606</v>
+        <v>0.1114668868302423</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02783523829840909</v>
+        <v>0.02492058753383678</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>246</v>
+      </c>
+      <c r="J4" t="n">
+        <v>487</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20.77600860501077</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2965070790.014704</v>
+        <v>2743146142.784318</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09764079592466156</v>
+        <v>0.08563749168382311</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04749636678461015</v>
+        <v>0.05073494501268328</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>207</v>
+      </c>
+      <c r="J5" t="n">
+        <v>486</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1802904580.537668</v>
+        <v>2193182269.561932</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1288226023231559</v>
+        <v>0.09748609322371274</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04590243272838973</v>
+        <v>0.04189996068238012</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2160829162.250646</v>
+        <v>2837308206.69344</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0957970078531284</v>
+        <v>0.07828751861844852</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03535575591658411</v>
+        <v>0.04049397407335022</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3899437156.585568</v>
+        <v>3547523375.985234</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2053192214098193</v>
+        <v>0.2035188990853418</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02275718934551264</v>
+        <v>0.02974434901196418</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>136</v>
+      </c>
+      <c r="J8" t="n">
+        <v>488</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1798895064.047605</v>
+        <v>1461935017.944631</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1235062270377945</v>
+        <v>0.1534573494054549</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03023049206425365</v>
+        <v>0.02887175051166927</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5015751208.876348</v>
+        <v>4108015787.854204</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1510173013687143</v>
+        <v>0.1596968992460131</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04548425689948939</v>
+        <v>0.04463546696613492</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>369</v>
+      </c>
+      <c r="J10" t="n">
+        <v>488</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2749980459.096259</v>
+        <v>4002280210.677363</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1248409019196782</v>
+        <v>0.1392943518971785</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04688829721602609</v>
+        <v>0.04567349772902034</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>204</v>
+      </c>
+      <c r="J11" t="n">
+        <v>488</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3305994009.962198</v>
+        <v>2919118121.561241</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1591643883664876</v>
+        <v>0.1843268397295488</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04505474540701586</v>
+        <v>0.05312440654854234</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5040894442.366872</v>
+        <v>5044835840.645166</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0953086243929854</v>
+        <v>0.08041065115913622</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03005044070447669</v>
+        <v>0.02730619427359289</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>252</v>
+      </c>
+      <c r="J13" t="n">
+        <v>488</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,16 +923,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3143126707.078603</v>
+        <v>3766322290.324564</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1559697980955755</v>
+        <v>0.1516475109079457</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03613968656598786</v>
+        <v>0.04059696166762823</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>113</v>
+      </c>
+      <c r="J14" t="n">
+        <v>488</v>
+      </c>
+      <c r="K14" t="n">
+        <v>41.75393843641084</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +960,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1124845335.541392</v>
+        <v>1515222536.983198</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09002970143921481</v>
+        <v>0.06575446892388521</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04683194651581253</v>
+        <v>0.03347136265455068</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2511447230.031416</v>
+        <v>2141074570.965187</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09171327997952025</v>
+        <v>0.1154057449412479</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04492467513538971</v>
+        <v>0.04235741379916266</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3758420910.526166</v>
+        <v>3269904782.264503</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1268629254607665</v>
+        <v>0.1699314712678109</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0440902110137122</v>
+        <v>0.04028164235966013</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>238</v>
+      </c>
+      <c r="J17" t="n">
+        <v>487</v>
+      </c>
+      <c r="K17" t="n">
+        <v>21.84078841037309</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3553675120.940959</v>
+        <v>3617930999.38592</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1610300824679104</v>
+        <v>0.1774010496302703</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03262211801195092</v>
+        <v>0.0221170225908744</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>130</v>
+      </c>
+      <c r="J18" t="n">
+        <v>488</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1033094466.114822</v>
+        <v>1139499445.183763</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1496333842783151</v>
+        <v>0.1823470014623231</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01923711023022626</v>
+        <v>0.02002027677209208</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2358181764.168649</v>
+        <v>2151055562.659969</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1158861762729918</v>
+        <v>0.1485481274843541</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02208412418427224</v>
+        <v>0.02631816936150035</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2208273220.843791</v>
+        <v>2456311654.623736</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07253340027882928</v>
+        <v>0.06584561782726864</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04612564741275728</v>
+        <v>0.04176547961803295</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1207,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3059955596.563845</v>
+        <v>2868145090.035281</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1389013465618338</v>
+        <v>0.1370774225259557</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04446299858512473</v>
+        <v>0.05517458866019381</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>143</v>
+      </c>
+      <c r="J22" t="n">
+        <v>486</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1129672587.902899</v>
+        <v>1474763683.387877</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1651786998585179</v>
+        <v>0.1541972090269476</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04875899057383653</v>
+        <v>0.05159799517905155</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2996046133.923182</v>
+        <v>2703095642.370687</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0904481126083876</v>
+        <v>0.1144264510042677</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02765290450993145</v>
+        <v>0.03499849433983938</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>154</v>
+      </c>
+      <c r="J24" t="n">
+        <v>484</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>953044905.1673222</v>
+        <v>1054898130.714582</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09682426650389477</v>
+        <v>0.09263302150859549</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02684389203551343</v>
+        <v>0.02596763369858359</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1077320089.576686</v>
+        <v>998621500.2449129</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1214128504647682</v>
+        <v>0.115224671590916</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02592767443240598</v>
+        <v>0.03826500584142006</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1382,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3253784052.557501</v>
+        <v>3669261304.944952</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1023699383611537</v>
+        <v>0.1501570906043068</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01834597916974984</v>
+        <v>0.01948942315466692</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>218</v>
+      </c>
+      <c r="J27" t="n">
+        <v>488</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1411,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3330499217.348101</v>
+        <v>3551197787.246557</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1142968175837393</v>
+        <v>0.09826153054436346</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03031835213574227</v>
+        <v>0.03862417998657396</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>120</v>
+      </c>
+      <c r="J28" t="n">
+        <v>488</v>
+      </c>
+      <c r="K28" t="n">
+        <v>48.6378992751944</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1454,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4894351072.100615</v>
+        <v>4927117851.354774</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1440779070423838</v>
+        <v>0.1296951503993596</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0320236388548498</v>
+        <v>0.03224568571955977</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>385</v>
+      </c>
+      <c r="J29" t="n">
+        <v>487</v>
+      </c>
+      <c r="K29" t="n">
+        <v>26.86320390584452</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1491,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1513206506.224613</v>
+        <v>2301364676.689609</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1060820354362752</v>
+        <v>0.1115387836280514</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02666597350942499</v>
+        <v>0.02985051532887215</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1311266426.734577</v>
+        <v>1158893781.889078</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06761268194698415</v>
+        <v>0.07521694150234964</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03258400286242971</v>
+        <v>0.04052174295326374</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1286601740.756518</v>
+        <v>1681654540.459176</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09740342125921288</v>
+        <v>0.1133171704316266</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03402195547438971</v>
+        <v>0.03772844043246169</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2333013264.87396</v>
+        <v>1998348664.495149</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1685714519426645</v>
+        <v>0.201145139210378</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05566186695749557</v>
+        <v>0.05024540908487489</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1011575790.771263</v>
+        <v>1265384381.938224</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08949531736635387</v>
+        <v>0.09773825226326718</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02685231257313257</v>
+        <v>0.02813501990419473</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1001712838.539938</v>
+        <v>1255269292.279536</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1094262692848454</v>
+        <v>0.07142723761006016</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03054752386924017</v>
+        <v>0.03851390610392637</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2138253001.792856</v>
+        <v>2972701470.307003</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1451783529157367</v>
+        <v>0.1544737075085497</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02785678829808442</v>
+        <v>0.01938173250494133</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1736,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1905669382.349524</v>
+        <v>2632489003.370576</v>
       </c>
       <c r="F37" t="n">
-        <v>0.110913869285499</v>
+        <v>0.08307869297597194</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02606490440816612</v>
+        <v>0.03112883651573218</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1970217945.804104</v>
+        <v>1331110745.435649</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1139972249732292</v>
+        <v>0.0785931046907325</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03347804246675675</v>
+        <v>0.02522846368661831</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1409535203.430521</v>
+        <v>1455040440.445894</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1242101228146871</v>
+        <v>0.1325475889565996</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02031778672836513</v>
+        <v>0.02369202001451999</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1161453370.951851</v>
+        <v>1691508930.765117</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1366967253687742</v>
+        <v>0.1148270831657485</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04548677137727111</v>
+        <v>0.04010024454395936</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2793022739.339983</v>
+        <v>2665948184.830075</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1212990996356779</v>
+        <v>0.1104346022477943</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0433825754705457</v>
+        <v>0.02995108091020495</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2984242897.859791</v>
+        <v>2730902826.031539</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07906211950235456</v>
+        <v>0.1189141422939666</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02885307336421366</v>
+        <v>0.0358477225767664</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>210</v>
+      </c>
+      <c r="J42" t="n">
+        <v>487</v>
+      </c>
+      <c r="K42" t="n">
+        <v>21.3923881898388</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3036637160.815176</v>
+        <v>2257078070.903104</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1301711676564351</v>
+        <v>0.1304671354563978</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02031630147620671</v>
+        <v>0.01570255356392397</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2032805654.212313</v>
+        <v>1733271262.038693</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06326942574532515</v>
+        <v>0.09797402851932721</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03256971765274413</v>
+        <v>0.02296927674891175</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2104495827.072152</v>
+        <v>2091868544.953969</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1722638517405835</v>
+        <v>0.1386588015604897</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04805141804416565</v>
+        <v>0.03485078197251357</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5415619023.530092</v>
+        <v>5101631599.50007</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1722896581544969</v>
+        <v>0.1482477278200449</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05404475171902385</v>
+        <v>0.06059186193024416</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>287</v>
+      </c>
+      <c r="J46" t="n">
+        <v>487</v>
+      </c>
+      <c r="K46" t="n">
+        <v>26.50942113275288</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2090,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4396483510.100023</v>
+        <v>3177865011.269563</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1247257292020005</v>
+        <v>0.1672598393768013</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05135521689141858</v>
+        <v>0.04586018618316926</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>222</v>
+      </c>
+      <c r="J47" t="n">
+        <v>487</v>
+      </c>
+      <c r="K47" t="n">
+        <v>21.89198573695926</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3492640403.636996</v>
+        <v>3834634130.860176</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09417200565867496</v>
+        <v>0.0848710923061828</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02632192187333142</v>
+        <v>0.0381376123325789</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>245</v>
+      </c>
+      <c r="J48" t="n">
+        <v>487</v>
+      </c>
+      <c r="K48" t="n">
+        <v>30.48986849284656</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1212558629.83908</v>
+        <v>1685078151.180441</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1693793961945536</v>
+        <v>0.1635282412779402</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04211212926314574</v>
+        <v>0.04338559430275492</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4228865676.053864</v>
+        <v>3473908991.91181</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1148857992098449</v>
+        <v>0.1477994228315862</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03629166289633822</v>
+        <v>0.04136850746560744</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>175</v>
+      </c>
+      <c r="J50" t="n">
+        <v>488</v>
+      </c>
+      <c r="K50" t="n">
+        <v>34.01062249084033</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1408570412.400218</v>
+        <v>1031318266.576951</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1581716510723128</v>
+        <v>0.1315983283704864</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03446543328343936</v>
+        <v>0.05152568451729992</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2265,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4925777375.532604</v>
+        <v>4270394152.756685</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08734827441239719</v>
+        <v>0.127040655229917</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06157784044237991</v>
+        <v>0.0617114378505255</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>273</v>
+      </c>
+      <c r="J52" t="n">
+        <v>487</v>
+      </c>
+      <c r="K52" t="n">
+        <v>27.99619104920201</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2302,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3218261511.316722</v>
+        <v>3008892385.166806</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1268149589103864</v>
+        <v>0.1264067445625063</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03448951574554888</v>
+        <v>0.03104170381612743</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>76</v>
+      </c>
+      <c r="J53" t="n">
+        <v>488</v>
+      </c>
+      <c r="K53" t="n">
+        <v>37.86806289557867</v>
       </c>
     </row>
     <row r="54">
@@ -1942,17 +2345,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3646892035.569912</v>
+        <v>3884672586.699994</v>
       </c>
       <c r="F54" t="n">
-        <v>0.139805932728168</v>
+        <v>0.1426312170886725</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04524498290879733</v>
+        <v>0.0450613904017166</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>257</v>
+      </c>
+      <c r="J54" t="n">
+        <v>488</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2374,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4702470595.105186</v>
+        <v>3992128370.894376</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1602433647082986</v>
+        <v>0.1508201536817008</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02693200173210713</v>
+        <v>0.0304763754521227</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>241</v>
+      </c>
+      <c r="J55" t="n">
+        <v>487</v>
+      </c>
+      <c r="K55" t="n">
+        <v>29.77265454302074</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2411,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1584416522.715787</v>
+        <v>1502210793.73307</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1032514781067283</v>
+        <v>0.1144938170258326</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04885940581246568</v>
+        <v>0.04252296727736326</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2446,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3298064119.599576</v>
+        <v>3358915432.803158</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1159719304694979</v>
+        <v>0.1716214221859829</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02727449125030614</v>
+        <v>0.01836908551978267</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>211</v>
+      </c>
+      <c r="J57" t="n">
+        <v>487</v>
+      </c>
+      <c r="K57" t="n">
+        <v>27.47334631581035</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2483,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1864731992.946913</v>
+        <v>1726617257.008039</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1652167953737359</v>
+        <v>0.1688513002480318</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03664627651784794</v>
+        <v>0.0366942163050384</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2518,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5419210211.534366</v>
+        <v>3681176904.999443</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08618092621149465</v>
+        <v>0.09025777287777496</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04639329641612286</v>
+        <v>0.03244443087934512</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>239</v>
+      </c>
+      <c r="J59" t="n">
+        <v>488</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2553,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3399104677.718995</v>
+        <v>3055558047.482128</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1538811262849895</v>
+        <v>0.1418711016971018</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02636303655933499</v>
+        <v>0.02574991806648852</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>98</v>
+      </c>
+      <c r="J60" t="n">
+        <v>483</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2588,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2170390409.546371</v>
+        <v>2537316294.98746</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1717667090045975</v>
+        <v>0.1352617904973688</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02172058176278089</v>
+        <v>0.0290205237637824</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2623,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1579551192.230972</v>
+        <v>1366999922.490209</v>
       </c>
       <c r="F62" t="n">
-        <v>0.176218998950479</v>
+        <v>0.1563913528281797</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04584607496554701</v>
+        <v>0.03572820182086839</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2658,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5028887955.734922</v>
+        <v>4497320749.03671</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09986561242283201</v>
+        <v>0.1042152799678288</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03805272261660232</v>
+        <v>0.0469233100372012</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>243</v>
+      </c>
+      <c r="J63" t="n">
+        <v>488</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2693,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5222402912.341308</v>
+        <v>3487317484.996647</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1306120964066789</v>
+        <v>0.1921509601608645</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02407309527597543</v>
+        <v>0.02775473761848331</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>243</v>
+      </c>
+      <c r="J64" t="n">
+        <v>487</v>
+      </c>
+      <c r="K64" t="n">
+        <v>23.930332089731</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2730,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4486325849.105666</v>
+        <v>4202282396.429268</v>
       </c>
       <c r="F65" t="n">
-        <v>0.121530999263487</v>
+        <v>0.1158816018960016</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02885150335325614</v>
+        <v>0.02706203837209937</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>341</v>
+      </c>
+      <c r="J65" t="n">
+        <v>488</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2771,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3841820092.196052</v>
+        <v>5212356126.190558</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1440367544047444</v>
+        <v>0.1619025060362921</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0464376829115717</v>
+        <v>0.04719279705980844</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>242</v>
+      </c>
+      <c r="J66" t="n">
+        <v>487</v>
+      </c>
+      <c r="K66" t="n">
+        <v>25.88265670885978</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2808,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2840822495.922352</v>
+        <v>2984242290.611187</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06572115883615169</v>
+        <v>0.08992066249350755</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04565942949527638</v>
+        <v>0.04498329980321481</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2837,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4557961499.409648</v>
+        <v>4700962889.331547</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1327954823587754</v>
+        <v>0.09926811453602294</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04165931225029256</v>
+        <v>0.04960359045169899</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>265</v>
+      </c>
+      <c r="J68" t="n">
+        <v>487</v>
+      </c>
+      <c r="K68" t="n">
+        <v>28.97140500126927</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2880,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2295989124.497653</v>
+        <v>2222202500.575075</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1669428409569283</v>
+        <v>0.1737158112637675</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04250627615351069</v>
+        <v>0.05198902343356672</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2909,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2871299649.484879</v>
+        <v>3670596333.165534</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09869626337902673</v>
+        <v>0.0638667621262457</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0395188345909897</v>
+        <v>0.0400273471450013</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>73</v>
+      </c>
+      <c r="J70" t="n">
+        <v>488</v>
+      </c>
+      <c r="K70" t="n">
+        <v>48.86384306342562</v>
       </c>
     </row>
     <row r="71">
@@ -2412,23 +2946,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4769641082.765924</v>
+        <v>3959253329.233628</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1521001788522384</v>
+        <v>0.1426674048283581</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02609176953883234</v>
+        <v>0.03286445300810564</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>328</v>
+      </c>
+      <c r="J71" t="n">
+        <v>488</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2981,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1541076215.855342</v>
+        <v>1925301842.200531</v>
       </c>
       <c r="F72" t="n">
-        <v>0.105126001349463</v>
+        <v>0.09314853026887693</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03561625564838859</v>
+        <v>0.03525995882786333</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3016,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3133942505.483684</v>
+        <v>3393382906.916932</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07656994081682864</v>
+        <v>0.08713186182002781</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04981701029588577</v>
+        <v>0.04949874755313288</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>46</v>
+      </c>
+      <c r="J73" t="n">
+        <v>481</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3051,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2607554608.877769</v>
+        <v>3469186842.592508</v>
       </c>
       <c r="F74" t="n">
-        <v>0.11866758299361</v>
+        <v>0.1233504105140085</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02189192335483164</v>
+        <v>0.02270710035321715</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>144</v>
+      </c>
+      <c r="J74" t="n">
+        <v>485</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3086,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2055778120.495881</v>
+        <v>1728639150.199003</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1279101152066216</v>
+        <v>0.1032552319970641</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03601405013588994</v>
+        <v>0.02869857128154545</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3127,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3848501911.190156</v>
+        <v>3577499967.324984</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08042212684261313</v>
+        <v>0.08427639448404513</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03130276971884663</v>
+        <v>0.0253940279711321</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>234</v>
+      </c>
+      <c r="J76" t="n">
+        <v>487</v>
+      </c>
+      <c r="K76" t="n">
+        <v>28.06834882533188</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3158,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1526365554.063728</v>
+        <v>1717733338.640252</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1661840578501357</v>
+        <v>0.1303455129975577</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03050574516341259</v>
+        <v>0.02293404111236437</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3199,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3612775306.888462</v>
+        <v>4358249216.187799</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1268153081543331</v>
+        <v>0.1092976479577443</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05479881609426344</v>
+        <v>0.05208064455060614</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>242</v>
+      </c>
+      <c r="J78" t="n">
+        <v>488</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3228,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1333792760.386606</v>
+        <v>1434726813.411471</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1602782748400467</v>
+        <v>0.1281170753688358</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02549864733953032</v>
+        <v>0.03499917734891217</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3269,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5374162690.564753</v>
+        <v>3986321548.496634</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1041032723199019</v>
+        <v>0.07921825408627459</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03284688023966744</v>
+        <v>0.02958131814996335</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>238</v>
+      </c>
+      <c r="J80" t="n">
+        <v>488</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3304,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4531434549.631981</v>
+        <v>3685189764.89846</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09515262262056606</v>
+        <v>0.1022899561165627</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02991309595155328</v>
+        <v>0.02092209772930664</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>228</v>
+      </c>
+      <c r="J81" t="n">
+        <v>488</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3908561902.814964</v>
+        <v>3487934737.073925</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1517717820811272</v>
+        <v>0.1318857098115996</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02413634503121971</v>
+        <v>0.02810120574552419</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
+      <c r="I82" t="n">
+        <v>319</v>
+      </c>
+      <c r="J82" t="n">
+        <v>485</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2334316903.600954</v>
+        <v>1939869049.530194</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1123611405589103</v>
+        <v>0.1239039960019519</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04268588935749808</v>
+        <v>0.04509711636355344</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2214956484.99596</v>
+        <v>2223780913.746992</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1176583386394938</v>
+        <v>0.1170063418136955</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04109471962685134</v>
+        <v>0.04542971802710044</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3671226314.31691</v>
+        <v>3144571545.662241</v>
       </c>
       <c r="F85" t="n">
-        <v>0.13256618801841</v>
+        <v>0.1685304694240933</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04062236046056571</v>
+        <v>0.03919112713693512</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>74</v>
+      </c>
+      <c r="J85" t="n">
+        <v>485</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2421707910.139618</v>
+        <v>2492753785.522567</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1128560540014311</v>
+        <v>0.1315208166281526</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02410244492397294</v>
+        <v>0.02635894268589227</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1283165620.019499</v>
+        <v>909313662.5895867</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1799526353612523</v>
+        <v>0.1769410914923139</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04042050187670456</v>
+        <v>0.03495614715094079</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3675532255.681599</v>
+        <v>3365720081.257802</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1764806871596895</v>
+        <v>0.1371381992071808</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03359839747027412</v>
+        <v>0.0284420622910255</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>71</v>
+      </c>
+      <c r="J88" t="n">
+        <v>485</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2310578320.617401</v>
+        <v>2310379766.942171</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1385546249768155</v>
+        <v>0.1441415753841142</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02741189048240875</v>
+        <v>0.0263463285989909</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>29</v>
+      </c>
+      <c r="J89" t="n">
+        <v>486</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1336125480.936701</v>
+        <v>1898349508.690168</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1010256852822015</v>
+        <v>0.1107427558055908</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05535807040283185</v>
+        <v>0.0490067289204593</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2057012554.554866</v>
+        <v>2094374088.778807</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1696015966082086</v>
+        <v>0.1349961129924137</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05000569737449248</v>
+        <v>0.05105990961064225</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2643994895.285325</v>
+        <v>2694517690.577313</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07530749818280873</v>
+        <v>0.1049664680563967</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03686640557451962</v>
+        <v>0.03883202162705475</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4583905946.611521</v>
+        <v>5025113552.033958</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1172389717779562</v>
+        <v>0.08922465566695482</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03577408740765006</v>
+        <v>0.04368920514462341</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>234</v>
+      </c>
+      <c r="J93" t="n">
+        <v>488</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1718309437.544896</v>
+        <v>2246938814.51714</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1076925226036857</v>
+        <v>0.1022092172071919</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03506982131552923</v>
+        <v>0.03607388017724484</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3195199823.062228</v>
+        <v>2022671374.137834</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09826266061672252</v>
+        <v>0.1024371459344632</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03513872940301154</v>
+        <v>0.05185177761197032</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2126777883.078377</v>
+        <v>1691837440.905351</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1157506865546871</v>
+        <v>0.1305418531269701</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03358286355365759</v>
+        <v>0.04099259860786876</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5052304640.493951</v>
+        <v>3375419704.23547</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1296599912400617</v>
+        <v>0.1213885203568451</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02268617851586036</v>
+        <v>0.01815366074239393</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>254</v>
+      </c>
+      <c r="J97" t="n">
+        <v>486</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3724910586.057725</v>
+        <v>2418416016.808431</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1050969725978545</v>
+        <v>0.1146925409820153</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03006067116030424</v>
+        <v>0.03067456581261852</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>124</v>
+      </c>
+      <c r="J98" t="n">
+        <v>480</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2072701250.807633</v>
+        <v>2363426659.495018</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1012974243206483</v>
+        <v>0.1354038404189015</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03285027501538706</v>
+        <v>0.02800930001402107</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3029922370.992644</v>
+        <v>4244859144.517698</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1368512918349998</v>
+        <v>0.1420268812363868</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02265290417679668</v>
+        <v>0.02370061386049722</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>228</v>
+      </c>
+      <c r="J100" t="n">
+        <v>487</v>
+      </c>
+      <c r="K100" t="n">
+        <v>31.18894696861573</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3169493223.122377</v>
+        <v>3220113150.928334</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1666175162361496</v>
+        <v>0.1785951881249727</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04326951390982021</v>
+        <v>0.05858231879822309</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
